--- a/7.Recommender_Systems/Collaborative Filtering Example.xlsx
+++ b/7.Recommender_Systems/Collaborative Filtering Example.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DS-Intro/6.Model_HyperParameter_tunning/Assignments/7.Recommender_Systems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DS-Intro/7.Recommender_Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B773EC27-AB98-3641-992E-1168CF9A0219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F7FABB-6D4C-664F-BB76-AA1218A8E783}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16220" xr2:uid="{A9BAFCC2-2992-7741-869C-F9E51D66CCB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="10160" xr2:uid="{A9BAFCC2-2992-7741-869C-F9E51D66CCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Collaborative Filtering Sol (3)" sheetId="3" r:id="rId1"/>
     <sheet name="Collaborative Filtering Sol (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
   <si>
     <t>A</t>
   </si>
@@ -134,13 +134,16 @@
   </si>
   <si>
     <t>Predict Rating of Movie SW2 by User A</t>
+  </si>
+  <si>
+    <t>[S(a,b)*Score(b) + S(a,e)*Score(e)] / [ S(a,b) + S(a,e) ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,15 +220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,30 +546,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1836BF-4CB6-3C4E-826A-B9CACF475D5F}">
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -577,7 +582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -603,14 +608,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5">
         <v>5</v>
       </c>
@@ -618,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -629,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -643,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -654,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -671,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -694,14 +699,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12">
@@ -714,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -741,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -768,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -790,8 +795,12 @@
       <c r="I15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="J15">
+        <f>SUMPRODUCT(C12:G12,C15:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -810,8 +819,12 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="J16">
+        <f>SUMPRODUCT(C12:G12,C16:G16)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -840,14 +853,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20">
@@ -864,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -888,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -912,7 +925,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -936,7 +949,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -957,7 +970,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -977,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -985,9 +998,8 @@
         <f>C20-$H20</f>
         <v>2</v>
       </c>
-      <c r="D27" s="5"/>
       <c r="E27">
-        <f t="shared" ref="E27:H27" si="1">E20-$H20</f>
+        <f t="shared" ref="D27:G27" si="1">E20-$H20</f>
         <v>3</v>
       </c>
       <c r="F27">
@@ -995,7 +1007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1004,23 +1016,23 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:G28" si="2">D21-$H21</f>
+        <f t="shared" ref="D28" si="2">D21-$H21</f>
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="1">
-        <f>SUMPRODUCT(C27:G28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <f>SUMPRODUCT(C27:G27,C28:G28)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:I29" si="3">E22-$H22</f>
+        <f t="shared" ref="E29:G29" si="3">E22-$H22</f>
         <v>-0.20000000000000018</v>
       </c>
       <c r="F29">
@@ -1039,12 +1051,12 @@
         <v>-2.4000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:H31" si="4">D23-$H23</f>
+        <f t="shared" ref="D30:G31" si="4">D23-$H23</f>
         <v>1.8</v>
       </c>
       <c r="G30">
@@ -1054,9 +1066,12 @@
       <c r="I30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="J30" s="1">
+        <f>SUMPRODUCT(C27:G27,C30:G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -1079,8 +1094,12 @@
       <c r="I31" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="J31" s="1">
+        <f>SUMPRODUCT(C27:G27,C31:G31)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>18</v>
       </c>
@@ -1102,22 +1121,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="21">
+    <row r="37" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I37" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="46" customHeight="1">
-      <c r="G39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="3">
+        <f>(J28*D21+J31*D24)/(J28+J31)</f>
+        <v>4.0909090909090908</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1136,28 +1158,28 @@
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1194,14 +1216,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5">
         <v>5</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1285,14 +1307,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12">
@@ -1305,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -1439,14 +1461,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20">
@@ -1463,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1533,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +1578,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -1584,9 +1606,9 @@
         <f>C20-$H20</f>
         <v>2</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27">
-        <f t="shared" ref="E27:H27" si="1">E20-$H20</f>
+        <f t="shared" ref="E27:F27" si="1">E20-$H20</f>
         <v>3</v>
       </c>
       <c r="F27">
@@ -1594,7 +1616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:G28" si="2">D21-$H21</f>
+        <f t="shared" ref="D28" si="2">D21-$H21</f>
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1614,12 +1636,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:I29" si="3">E22-$H22</f>
+        <f t="shared" ref="E29:G29" si="3">E22-$H22</f>
         <v>-0.20000000000000018</v>
       </c>
       <c r="F29">
@@ -1638,12 +1660,12 @@
         <v>-2.4000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:H31" si="4">D23-$H23</f>
+        <f t="shared" ref="D30:G31" si="4">D23-$H23</f>
         <v>1.8</v>
       </c>
       <c r="G30">
@@ -1658,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +1719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>18</v>
       </c>
@@ -1708,22 +1730,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="21">
+    <row r="37" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="46" customHeight="1">
-      <c r="G39" s="3" t="s">
+    <row r="39" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4">
+      <c r="H39" s="6"/>
+      <c r="I39" s="3">
         <f xml:space="preserve"> ( J28*D21 + J31*D24) / (J28+J31)</f>
         <v>4.333333333333333</v>
       </c>
